--- a/src/main/resources/data/deleteGraphById.xlsx
+++ b/src/main/resources/data/deleteGraphById.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="13120"/>
+    <workbookView windowWidth="28000" windowHeight="10340"/>
   </bookViews>
   <sheets>
     <sheet name="工作表 1" sheetId="1" r:id="rId1"/>
@@ -168,7 +168,7 @@
     <t>{"projectId":1334,"graphId":2497}</t>
   </si>
   <si>
-    <t>无权访问</t>
+    <t>无权操作</t>
   </si>
   <si>
     <r>
@@ -203,10 +203,10 @@
     </r>
   </si>
   <si>
-    <t>{"projectId":1426,"graphId":2827}</t>
-  </si>
-  <si>
-    <t>无权操作</t>
+    <t>{"projectId":1426,"graphId":3356}</t>
+  </si>
+  <si>
+    <t>该视图不属于此项目</t>
   </si>
   <si>
     <r>
@@ -250,8 +250,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="26">
@@ -283,21 +283,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -319,7 +321,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -333,14 +350,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -349,6 +358,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -357,6 +380,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -365,40 +402,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -410,9 +418,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -426,13 +433,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
@@ -467,13 +467,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -485,169 +587,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -736,17 +736,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -756,6 +759,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -775,6 +793,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -782,39 +815,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -838,148 +838,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2327,7 +2327,7 @@
         <v>19</v>
       </c>
       <c r="C7" s="8">
-        <v>401</v>
+        <v>90009</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>20</v>
@@ -2345,7 +2345,7 @@
         <v>22</v>
       </c>
       <c r="C8" s="8">
-        <v>90009</v>
+        <v>90017</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>23</v>
@@ -2366,7 +2366,7 @@
         <v>90009</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E9" s="12">
         <v>1</v>
